--- a/data/customer_table.xlsx
+++ b/data/customer_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wildechips-my.sharepoint.com/personal/mike_jackson_wildebrands_com/Documents/data/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{4BE15C8D-F203-422B-9A89-1ACCE5286BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64143AD4-2520-4F20-AB5C-0061E7C8F6B4}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="13_ncr:1_{4BE15C8D-F203-422B-9A89-1ACCE5286BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A88F06B-0FED-42A2-AF35-FD535907DCE3}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="dot channels and segments" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">customers!$A$1:$I$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">customers!$A$1:$I$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="494">
   <si>
     <t>cust_num</t>
   </si>
@@ -1341,9 +1341,6 @@
     <t>207298-0</t>
   </si>
   <si>
-    <t>Fairway</t>
-  </si>
-  <si>
     <t>CVS PHARMACY/ VERO BEACH</t>
   </si>
   <si>
@@ -1422,10 +1419,109 @@
     <t>CVS PHARMACY/ NORTH AUGUS</t>
   </si>
   <si>
-    <t>201559</t>
-  </si>
-  <si>
     <t>201559-15</t>
+  </si>
+  <si>
+    <t>Fareway</t>
+  </si>
+  <si>
+    <t>EBY-BROWN/AURORA</t>
+  </si>
+  <si>
+    <t>CORE-MARK/BOSTON</t>
+  </si>
+  <si>
+    <t>CORE-MARK/COLUMBUS</t>
+  </si>
+  <si>
+    <t>CORE-MARK/DENVER</t>
+  </si>
+  <si>
+    <t>CORE-MARK/EAU CLAIRE</t>
+  </si>
+  <si>
+    <t>CORE-MARK/GIBSONTON</t>
+  </si>
+  <si>
+    <t>CORE-MARK/INDIANAPOLIS</t>
+  </si>
+  <si>
+    <t>CORE-MARK/LOUISVILLE</t>
+  </si>
+  <si>
+    <t>CORE-MARK/MAINE</t>
+  </si>
+  <si>
+    <t>CORE-MARK/PITTSBURGH</t>
+  </si>
+  <si>
+    <t>CORE-MARK/SANFORD</t>
+  </si>
+  <si>
+    <t>CVS PHARMACY/KANSAS CITY</t>
+  </si>
+  <si>
+    <t>KCAA ENTERPRISE INC./ DBA</t>
+  </si>
+  <si>
+    <t>KCAA</t>
+  </si>
+  <si>
+    <t>206686-0</t>
+  </si>
+  <si>
+    <t>201559-32</t>
+  </si>
+  <si>
+    <t>dot_merge_num</t>
+  </si>
+  <si>
+    <t>RITE AID</t>
+  </si>
+  <si>
+    <t>Rite-Aid</t>
+  </si>
+  <si>
+    <t>AMCON BOISE</t>
+  </si>
+  <si>
+    <t>Amcon</t>
+  </si>
+  <si>
+    <t>World Market</t>
+  </si>
+  <si>
+    <t>CUSTOM FOOD SERVICE</t>
+  </si>
+  <si>
+    <t>6038-0</t>
+  </si>
+  <si>
+    <t>Custom Food Service</t>
+  </si>
+  <si>
+    <t>CORE-MARK/RALEIGH</t>
+  </si>
+  <si>
+    <t>VISTAR-MICHIGAN</t>
+  </si>
+  <si>
+    <t>VISTAR-ILLINOIS</t>
+  </si>
+  <si>
+    <t>230240-1</t>
+  </si>
+  <si>
+    <t>Vistar</t>
+  </si>
+  <si>
+    <t>230234-1</t>
+  </si>
+  <si>
+    <t>VISTAR-NEW ENGLAND</t>
+  </si>
+  <si>
+    <t>230244-1</t>
   </si>
 </sst>
 </file>
@@ -1466,9 +1562,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1502,12 +1598,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1790,11 +1884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B185" sqref="B185"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J206" sqref="J206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,9 +1899,10 @@
     <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
     <col min="5" max="8" width="24.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1835,486 +1930,537 @@
       <c r="I1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2">
-        <v>1026</v>
+        <v>146685</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
         <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J2" s="2">
+        <v>146685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1108</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>206090</v>
+        <v>1002</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>403</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>402</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1132</v>
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>239680</v>
+        <v>1003</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>402</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1084</v>
+        <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
-        <v>143052</v>
+        <v>1004</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>1002</v>
+        <v>132352</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
         <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2">
+        <v>132352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1145</v>
+        <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>403</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="H7" t="s">
         <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1143</v>
+        <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1100</v>
+        <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>142979</v>
+        <v>1008</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>280</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1154</v>
+        <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
-        <v>1154</v>
+        <v>1009</v>
       </c>
       <c r="E10" t="s">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>339</v>
       </c>
       <c r="H10" t="s">
         <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>1094</v>
+        <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>378</v>
       </c>
       <c r="D11" s="2">
-        <v>133270</v>
+        <v>236124</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="J11" s="2">
+        <v>236124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>1140</v>
+        <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2">
-        <v>239367</v>
+        <v>1011</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="H12" t="s">
-        <v>320</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1142</v>
+        <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2">
-        <v>790</v>
+        <v>236894</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>322</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2">
+        <v>236894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1109</v>
+        <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2">
-        <v>147511</v>
+        <v>138995</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>289</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="J14" s="2">
+        <v>138995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>1057</v>
+        <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
-        <v>129276</v>
+        <v>213977</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J15" s="2">
+        <v>213977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>1152</v>
+        <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
-        <v>129276</v>
+        <v>1015</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
         <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="H16" t="s">
-        <v>332</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1087</v>
+        <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
-        <v>242751</v>
+        <v>1016</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
         <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>1133</v>
+        <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2">
-        <v>141945</v>
+        <v>1017</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>65</v>
@@ -2323,27 +2469,30 @@
         <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>313</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>1092</v>
+        <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2">
-        <v>126024</v>
+        <v>135737</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>65</v>
@@ -2352,114 +2501,126 @@
         <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J19" s="2">
+        <v>135737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1167</v>
+        <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>407</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>407</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2">
-        <v>1167</v>
+        <v>1019</v>
       </c>
       <c r="E20" t="s">
-        <v>407</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="H20" t="s">
         <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>1105</v>
+        <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2">
-        <v>242625</v>
+        <v>1020</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>379</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1021</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
         <v>403</v>
       </c>
-      <c r="G21" t="s">
-        <v>402</v>
-      </c>
-      <c r="H21" t="s">
-        <v>285</v>
-      </c>
-      <c r="I21" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1151</v>
-      </c>
-      <c r="B22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="2">
-        <v>120307</v>
-      </c>
-      <c r="E22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
         <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>1126</v>
+        <v>1022</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
-        <v>120307</v>
+        <v>1022</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
         <v>65</v>
@@ -2468,114 +2629,126 @@
         <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>1063</v>
+        <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>380</v>
       </c>
       <c r="D24" s="2">
-        <v>120307</v>
+        <v>1023</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="I24" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>1076</v>
+        <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>120307</v>
+        <v>1024</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="H25" t="s">
-        <v>259</v>
+        <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>1048</v>
+        <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2">
-        <v>120307</v>
+        <v>1025</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
         <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>231</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>1049</v>
+        <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
-        <v>120307</v>
+        <v>1026</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
         <v>65</v>
@@ -2584,201 +2757,222 @@
         <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>1072</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>445</v>
+        <v>1027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
       </c>
       <c r="D28" s="2">
-        <v>120308</v>
+        <v>1027</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="H28" t="s">
-        <v>255</v>
+        <v>68</v>
       </c>
       <c r="I28" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>1117</v>
+        <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
-        <v>120307</v>
+        <v>1028</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="H29" t="s">
-        <v>297</v>
+        <v>68</v>
       </c>
       <c r="I29" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>1115</v>
+        <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="D30" s="2">
-        <v>120307</v>
+        <v>1029</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="H30" t="s">
-        <v>295</v>
+        <v>68</v>
       </c>
       <c r="I30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>1125</v>
+        <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
-        <v>120307</v>
+        <v>1030</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c r="I31" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>1064</v>
+        <v>1031</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2">
-        <v>120307</v>
+        <v>1031</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>247</v>
+        <v>68</v>
       </c>
       <c r="I32" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>1065</v>
+        <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="D33" s="2">
-        <v>120307</v>
+        <v>1032</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>68</v>
       </c>
       <c r="I33" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>1058</v>
+        <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>381</v>
       </c>
       <c r="D34" s="2">
-        <v>120307</v>
+        <v>1033</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
         <v>65</v>
@@ -2787,85 +2981,94 @@
         <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="I34" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>1172</v>
+        <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>423</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>423</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2">
-        <v>120307</v>
+        <v>1034</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
         <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>424</v>
+        <v>68</v>
       </c>
       <c r="I35" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>1066</v>
+        <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2">
-        <v>120307</v>
+        <v>1035</v>
       </c>
       <c r="E36" t="s">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="I36" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>1077</v>
+        <v>1036</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="D37" s="2">
-        <v>120307</v>
+        <v>7200</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F37" t="s">
         <v>65</v>
@@ -2874,27 +3077,30 @@
         <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="I37" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J37" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>1171</v>
+        <v>1037</v>
       </c>
       <c r="B38" t="s">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="D38" s="2">
-        <v>120307</v>
+        <v>7200</v>
       </c>
       <c r="E38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
         <v>65</v>
@@ -2903,27 +3109,30 @@
         <v>74</v>
       </c>
       <c r="H38" t="s">
-        <v>422</v>
+        <v>220</v>
       </c>
       <c r="I38" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J38" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>1182</v>
+        <v>1038</v>
       </c>
       <c r="B39" t="s">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="D39" s="2">
-        <v>120308</v>
+        <v>7200</v>
       </c>
       <c r="E39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F39" t="s">
         <v>65</v>
@@ -2932,50 +3141,56 @@
         <v>74</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="I39" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J39" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="D40" s="2">
-        <v>120307</v>
+        <v>138312</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F40" t="s">
         <v>65</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="I40" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J40" s="2">
+        <v>138312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D41" s="2">
         <v>120307</v>
@@ -2990,56 +3205,62 @@
         <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I41" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>141711</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>1067</v>
+        <v>1041</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2">
-        <v>120307</v>
+        <v>124723</v>
       </c>
       <c r="E42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H42" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="I42" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J42" s="2">
+        <v>124723</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D43" s="2">
-        <v>120307</v>
+        <v>126542</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F43" t="s">
         <v>65</v>
@@ -3048,27 +3269,30 @@
         <v>74</v>
       </c>
       <c r="H43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I43" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J43" s="2">
+        <v>126542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D44" s="2">
-        <v>120307</v>
+        <v>135737</v>
       </c>
       <c r="E44" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
         <v>65</v>
@@ -3077,27 +3301,30 @@
         <v>74</v>
       </c>
       <c r="H44" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="I44" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J44">
+        <v>135749</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>1123</v>
+        <v>1044</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="D45" s="2">
-        <v>120307</v>
+        <v>135737</v>
       </c>
       <c r="E45" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
         <v>65</v>
@@ -3106,27 +3333,30 @@
         <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="I45" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J45">
+        <v>135753</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D46" s="2">
-        <v>120307</v>
+        <v>141958</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F46" t="s">
         <v>65</v>
@@ -3135,27 +3365,30 @@
         <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I46" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J46" s="2">
+        <v>141958</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D47" s="2">
-        <v>120307</v>
+        <v>7200</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F47" t="s">
         <v>65</v>
@@ -3164,27 +3397,30 @@
         <v>74</v>
       </c>
       <c r="H47" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I47" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J47" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>1122</v>
+        <v>1047</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2">
-        <v>120307</v>
+        <v>135737</v>
       </c>
       <c r="E48" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
         <v>65</v>
@@ -3193,21 +3429,24 @@
         <v>74</v>
       </c>
       <c r="H48" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="I48" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J48">
+        <v>223883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>1120</v>
+        <v>1048</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="D49" s="2">
         <v>120307</v>
@@ -3222,23 +3461,26 @@
         <v>74</v>
       </c>
       <c r="H49" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="I49" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>147692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>1116</v>
+        <v>1049</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="2">
+        <v>90</v>
+      </c>
+      <c r="D50">
         <v>120307</v>
       </c>
       <c r="E50" t="s">
@@ -3251,21 +3493,24 @@
         <v>74</v>
       </c>
       <c r="H50" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="I50" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>125629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D51" s="2">
         <v>120307</v>
@@ -3280,404 +3525,446 @@
         <v>74</v>
       </c>
       <c r="H51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I51" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>136295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>1008</v>
+        <v>1051</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D52" s="2">
-        <v>1008</v>
+        <v>120307</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J52">
+        <v>147550</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>1182</v>
+        <v>1052</v>
       </c>
       <c r="B53" t="s">
-        <v>451</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>451</v>
+        <v>93</v>
       </c>
       <c r="D53" s="2">
-        <v>201559</v>
+        <v>120307</v>
       </c>
       <c r="E53" t="s">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="F53" t="s">
         <v>65</v>
       </c>
       <c r="G53" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>452</v>
+        <v>235</v>
       </c>
       <c r="I53" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J53">
+        <v>222505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>1165</v>
+        <v>1053</v>
       </c>
       <c r="B54" t="s">
-        <v>404</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>404</v>
+        <v>94</v>
       </c>
       <c r="D54" s="2">
-        <v>201559</v>
+        <v>7200</v>
       </c>
       <c r="E54" t="s">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="F54" t="s">
         <v>65</v>
       </c>
       <c r="G54" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>405</v>
+        <v>236</v>
       </c>
       <c r="I54" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J54" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>1157</v>
+        <v>1054</v>
       </c>
       <c r="B55" t="s">
-        <v>373</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>373</v>
+        <v>95</v>
       </c>
       <c r="D55" s="2">
-        <v>201559</v>
+        <v>135737</v>
       </c>
       <c r="E55" t="s">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
         <v>65</v>
       </c>
       <c r="G55" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>374</v>
+        <v>237</v>
       </c>
       <c r="I55" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J55">
+        <v>206550</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>1160</v>
+        <v>1055</v>
       </c>
       <c r="B56" t="s">
-        <v>391</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>391</v>
+        <v>96</v>
       </c>
       <c r="D56" s="2">
-        <v>201559</v>
+        <v>135737</v>
       </c>
       <c r="E56" t="s">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
         <v>65</v>
       </c>
       <c r="G56" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s">
-        <v>395</v>
+        <v>238</v>
       </c>
       <c r="I56" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J56">
+        <v>135743</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>1158</v>
+        <v>1056</v>
       </c>
       <c r="B57" t="s">
-        <v>386</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>386</v>
+        <v>97</v>
       </c>
       <c r="D57" s="2">
-        <v>201559</v>
+        <v>216827</v>
       </c>
       <c r="E57" t="s">
-        <v>375</v>
+        <v>187</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G57" t="s">
-        <v>376</v>
+        <v>66</v>
       </c>
       <c r="H57" t="s">
-        <v>387</v>
+        <v>239</v>
       </c>
       <c r="I57" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J57" s="2">
+        <v>216827</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>1161</v>
+        <v>1057</v>
       </c>
       <c r="B58" t="s">
-        <v>392</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>98</v>
       </c>
       <c r="D58" s="2">
-        <v>201559</v>
+        <v>129276</v>
       </c>
       <c r="E58" t="s">
-        <v>375</v>
+        <v>188</v>
       </c>
       <c r="F58" t="s">
         <v>65</v>
       </c>
       <c r="G58" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s">
-        <v>396</v>
+        <v>240</v>
       </c>
       <c r="I58" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J58" s="2">
+        <v>129276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>1164</v>
+        <v>1058</v>
       </c>
       <c r="B59" t="s">
-        <v>399</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>399</v>
+        <v>99</v>
       </c>
       <c r="D59" s="2">
-        <v>201559</v>
+        <v>120307</v>
       </c>
       <c r="E59" t="s">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="F59" t="s">
         <v>65</v>
       </c>
       <c r="G59" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>400</v>
+        <v>241</v>
       </c>
       <c r="I59" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J59">
+        <v>143699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>1162</v>
+        <v>1059</v>
       </c>
       <c r="B60" t="s">
-        <v>393</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>393</v>
+        <v>100</v>
       </c>
       <c r="D60" s="2">
-        <v>201559</v>
+        <v>120307</v>
       </c>
       <c r="E60" t="s">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="F60" t="s">
         <v>65</v>
       </c>
       <c r="G60" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s">
-        <v>397</v>
+        <v>242</v>
       </c>
       <c r="I60" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J60">
+        <v>142024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>1176</v>
+        <v>1060</v>
       </c>
       <c r="B61" t="s">
-        <v>434</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>434</v>
+        <v>101</v>
       </c>
       <c r="D61" s="2">
-        <v>201559</v>
+        <v>120307</v>
       </c>
       <c r="E61" t="s">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="F61" t="s">
         <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s">
-        <v>435</v>
+        <v>243</v>
       </c>
       <c r="I61" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J61">
+        <v>146580</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>1178</v>
+        <v>1061</v>
       </c>
       <c r="B62" t="s">
-        <v>434</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
-        <v>434</v>
+        <v>102</v>
       </c>
       <c r="D62" s="2">
-        <v>201559</v>
+        <v>135737</v>
       </c>
       <c r="E62" t="s">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
         <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s">
-        <v>405</v>
+        <v>244</v>
       </c>
       <c r="I62" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J62">
+        <v>135742</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>1163</v>
+        <v>1062</v>
       </c>
       <c r="B63" t="s">
-        <v>394</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>394</v>
+        <v>103</v>
       </c>
       <c r="D63" s="2">
-        <v>201559</v>
+        <v>135737</v>
       </c>
       <c r="E63" t="s">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
         <v>65</v>
       </c>
       <c r="G63" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s">
-        <v>398</v>
+        <v>245</v>
       </c>
       <c r="I63" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J63">
+        <v>135748</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>1159</v>
+        <v>1063</v>
       </c>
       <c r="B64" t="s">
-        <v>390</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>390</v>
+        <v>104</v>
       </c>
       <c r="D64" s="2">
-        <v>201559</v>
+        <v>120307</v>
       </c>
       <c r="E64" t="s">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="F64" t="s">
         <v>65</v>
       </c>
       <c r="G64" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s">
-        <v>389</v>
+        <v>246</v>
       </c>
       <c r="I64" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J64">
+        <v>135196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>1174</v>
+        <v>1064</v>
       </c>
       <c r="B65" t="s">
-        <v>428</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>428</v>
+        <v>105</v>
       </c>
       <c r="D65" s="2">
-        <v>243376</v>
+        <v>120307</v>
       </c>
       <c r="E65" t="s">
-        <v>430</v>
+        <v>183</v>
       </c>
       <c r="F65" t="s">
         <v>65</v>
@@ -3686,166 +3973,184 @@
         <v>74</v>
       </c>
       <c r="H65" t="s">
-        <v>429</v>
+        <v>247</v>
       </c>
       <c r="I65" t="s">
+        <v>409</v>
+      </c>
+      <c r="J65">
+        <v>147507</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>1065</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F66" t="s">
+        <v>65</v>
+      </c>
+      <c r="G66" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s">
+        <v>248</v>
+      </c>
+      <c r="I66" t="s">
+        <v>409</v>
+      </c>
+      <c r="J66">
+        <v>221726</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>1066</v>
+      </c>
+      <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E67" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s">
+        <v>249</v>
+      </c>
+      <c r="I67" t="s">
+        <v>409</v>
+      </c>
+      <c r="J67">
+        <v>147178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>1067</v>
+      </c>
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E68" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s">
+        <v>250</v>
+      </c>
+      <c r="I68" t="s">
+        <v>409</v>
+      </c>
+      <c r="J68">
+        <v>235196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>1068</v>
+      </c>
+      <c r="B69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E69" t="s">
+        <v>183</v>
+      </c>
+      <c r="F69" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s">
+        <v>251</v>
+      </c>
+      <c r="I69" t="s">
+        <v>409</v>
+      </c>
+      <c r="J69">
+        <v>120307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>1069</v>
+      </c>
+      <c r="B70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7200</v>
+      </c>
+      <c r="E70" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s">
+        <v>252</v>
+      </c>
+      <c r="I70" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1007</v>
-      </c>
-      <c r="E66" t="s">
-        <v>53</v>
-      </c>
-      <c r="F66" t="s">
-        <v>65</v>
-      </c>
-      <c r="G66" t="s">
-        <v>73</v>
-      </c>
-      <c r="H66" t="s">
-        <v>68</v>
-      </c>
-      <c r="I66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>1028</v>
-      </c>
-      <c r="B67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1028</v>
-      </c>
-      <c r="E67" t="s">
-        <v>33</v>
-      </c>
-      <c r="F67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" t="s">
-        <v>401</v>
-      </c>
-      <c r="H67" t="s">
-        <v>68</v>
-      </c>
-      <c r="I67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>1004</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1004</v>
-      </c>
-      <c r="E68" t="s">
-        <v>52</v>
-      </c>
-      <c r="F68" t="s">
-        <v>67</v>
-      </c>
-      <c r="G68" t="s">
-        <v>401</v>
-      </c>
-      <c r="H68" t="s">
-        <v>68</v>
-      </c>
-      <c r="I68" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>1138</v>
-      </c>
-      <c r="B69" t="s">
-        <v>175</v>
-      </c>
-      <c r="C69" t="s">
-        <v>175</v>
-      </c>
-      <c r="D69" s="2">
-        <v>146685</v>
-      </c>
-      <c r="E69" t="s">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s">
-        <v>65</v>
-      </c>
-      <c r="G69" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" t="s">
-        <v>318</v>
-      </c>
-      <c r="I69" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="2">
-        <v>146685</v>
-      </c>
-      <c r="E70" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" t="s">
-        <v>65</v>
-      </c>
-      <c r="G70" t="s">
-        <v>73</v>
-      </c>
-      <c r="H70" t="s">
-        <v>68</v>
-      </c>
-      <c r="I70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D71" s="2">
         <v>7200</v>
@@ -3860,85 +4165,94 @@
         <v>74</v>
       </c>
       <c r="H71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I71" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D72" s="2">
+        <v>135737</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s">
+        <v>254</v>
+      </c>
+      <c r="I72" t="s">
+        <v>412</v>
+      </c>
+      <c r="J72">
+        <v>135750</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>1072</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D73" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E73" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" t="s">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s">
+        <v>255</v>
+      </c>
+      <c r="I73" t="s">
+        <v>409</v>
+      </c>
+      <c r="J73">
         <v>7200</v>
       </c>
-      <c r="E72" t="s">
-        <v>181</v>
-      </c>
-      <c r="F72" t="s">
-        <v>65</v>
-      </c>
-      <c r="G72" t="s">
-        <v>74</v>
-      </c>
-      <c r="H72" t="s">
-        <v>236</v>
-      </c>
-      <c r="I72" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>1036</v>
-      </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>382</v>
-      </c>
-      <c r="D73" s="2">
-        <v>7200</v>
-      </c>
-      <c r="E73" t="s">
-        <v>181</v>
-      </c>
-      <c r="F73" t="s">
-        <v>65</v>
-      </c>
-      <c r="G73" t="s">
-        <v>74</v>
-      </c>
-      <c r="H73" t="s">
-        <v>219</v>
-      </c>
-      <c r="I73" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D74" s="2">
-        <v>7200</v>
+        <v>11796</v>
       </c>
       <c r="E74" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F74" t="s">
         <v>65</v>
@@ -3947,56 +4261,62 @@
         <v>74</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I74" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="2">
+        <v>11796</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>1037</v>
+        <v>1074</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>383</v>
+        <v>114</v>
       </c>
       <c r="D75" s="2">
-        <v>7200</v>
+        <v>236124</v>
       </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="F75" t="s">
         <v>65</v>
       </c>
       <c r="G75" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="I75" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="J75" s="2">
+        <v>225817</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D76" s="2">
-        <v>7200</v>
+        <v>135737</v>
       </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
         <v>65</v>
@@ -4005,27 +4325,30 @@
         <v>74</v>
       </c>
       <c r="H76" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="I76" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J76">
+        <v>135747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>1038</v>
+        <v>1076</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>384</v>
+        <v>116</v>
       </c>
       <c r="D77" s="2">
-        <v>7200</v>
+        <v>120307</v>
       </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F77" t="s">
         <v>65</v>
@@ -4034,27 +4357,30 @@
         <v>74</v>
       </c>
       <c r="H77" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="I77" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J77">
+        <v>141255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D78" s="2">
-        <v>7200</v>
+        <v>120307</v>
       </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F78" t="s">
         <v>65</v>
@@ -4063,201 +4389,222 @@
         <v>74</v>
       </c>
       <c r="H78" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="I78" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J78">
+        <v>139856</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>1121</v>
+        <v>1078</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="D79" s="2">
-        <v>212612</v>
+        <v>9150</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>403</v>
       </c>
       <c r="G79" t="s">
-        <v>66</v>
+        <v>402</v>
       </c>
       <c r="H79" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="I79" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="2">
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>1035</v>
+        <v>1079</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="D80" s="2">
-        <v>1035</v>
+        <v>208538</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="F80" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G80" t="s">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="I80" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J80" s="2">
+        <v>208538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>1175</v>
+        <v>1080</v>
       </c>
       <c r="B81" t="s">
-        <v>431</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
-        <v>431</v>
+        <v>120</v>
       </c>
       <c r="D81" s="2">
-        <v>207298</v>
+        <v>242203</v>
       </c>
       <c r="E81" t="s">
-        <v>433</v>
+        <v>192</v>
       </c>
       <c r="F81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G81" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H81" t="s">
-        <v>432</v>
+        <v>263</v>
       </c>
       <c r="I81" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="2">
+        <v>242203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>1124</v>
+        <v>1081</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D82" s="2">
-        <v>239019</v>
+        <v>135737</v>
       </c>
       <c r="E82" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G82" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H82" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="I82" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J82">
+        <v>236912</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D83" s="2">
-        <v>9150</v>
+        <v>224072</v>
       </c>
       <c r="E83" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F83" t="s">
         <v>403</v>
       </c>
       <c r="G83" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="H83" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I83" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="2">
+        <v>224072</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>1041</v>
+        <v>1083</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D84" s="2">
-        <v>124723</v>
+        <v>135737</v>
       </c>
       <c r="E84" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G84" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H84" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="I84" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J84">
+        <v>140759</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D85" s="2">
-        <v>208538</v>
+        <v>143052</v>
       </c>
       <c r="E85" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F85" t="s">
         <v>65</v>
@@ -4266,114 +4613,126 @@
         <v>74</v>
       </c>
       <c r="H85" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I85" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="2">
+        <v>143052</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>1006</v>
+        <v>1085</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D86" s="2">
-        <v>1006</v>
+        <v>135737</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G86" t="s">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="H86" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="I86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J86">
+        <v>135751</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>1020</v>
+        <v>1086</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="D87" s="2">
-        <v>1020</v>
+        <v>135737</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
         <v>65</v>
       </c>
       <c r="G87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H87" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="I87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J87">
+        <v>135744</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>1149</v>
+        <v>1087</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="D88" s="2">
-        <v>138312</v>
+        <v>242751</v>
       </c>
       <c r="E88" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F88" t="s">
         <v>65</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H88" t="s">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="I88" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J88" s="2">
+        <v>242751</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D89" s="2">
-        <v>138312</v>
+        <v>239843</v>
       </c>
       <c r="E89" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F89" t="s">
         <v>65</v>
@@ -4382,172 +4741,190 @@
         <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="I89" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="2">
+        <v>239843</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>1039</v>
+        <v>1089</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>385</v>
+        <v>129</v>
       </c>
       <c r="D90" s="2">
-        <v>138312</v>
+        <v>135737</v>
       </c>
       <c r="E90" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
         <v>65</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H90" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="I90" t="s">
+        <v>412</v>
+      </c>
+      <c r="J90">
+        <v>135737</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>1090</v>
+      </c>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="2">
+        <v>135737</v>
+      </c>
+      <c r="E91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" t="s">
+        <v>65</v>
+      </c>
+      <c r="G91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s">
+        <v>273</v>
+      </c>
+      <c r="I91" t="s">
+        <v>412</v>
+      </c>
+      <c r="J91">
+        <v>135740</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>1091</v>
+      </c>
+      <c r="B92" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="2">
+        <v>7200</v>
+      </c>
+      <c r="E92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F92" t="s">
+        <v>65</v>
+      </c>
+      <c r="G92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s">
+        <v>274</v>
+      </c>
+      <c r="I92" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>1082</v>
-      </c>
-      <c r="B91" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="2">
-        <v>224072</v>
-      </c>
-      <c r="E91" t="s">
-        <v>193</v>
-      </c>
-      <c r="F91" t="s">
-        <v>403</v>
-      </c>
-      <c r="G91" t="s">
-        <v>388</v>
-      </c>
-      <c r="H91" t="s">
-        <v>265</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="J92" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>1092</v>
+      </c>
+      <c r="B93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="2">
+        <v>126024</v>
+      </c>
+      <c r="E93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F93" t="s">
+        <v>65</v>
+      </c>
+      <c r="G93" t="s">
+        <v>74</v>
+      </c>
+      <c r="H93" t="s">
+        <v>275</v>
+      </c>
+      <c r="I93" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>1016</v>
-      </c>
-      <c r="B92" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="2">
-        <v>1016</v>
-      </c>
-      <c r="E92" t="s">
-        <v>21</v>
-      </c>
-      <c r="F92" t="s">
-        <v>65</v>
-      </c>
-      <c r="G92" t="s">
-        <v>46</v>
-      </c>
-      <c r="H92" t="s">
-        <v>68</v>
-      </c>
-      <c r="I92" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>1034</v>
-      </c>
-      <c r="B93" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" t="s">
-        <v>39</v>
-      </c>
-      <c r="D93" s="2">
-        <v>1034</v>
-      </c>
-      <c r="E93" t="s">
-        <v>39</v>
-      </c>
-      <c r="F93" t="s">
-        <v>65</v>
-      </c>
-      <c r="G93" t="s">
-        <v>46</v>
-      </c>
-      <c r="H93" t="s">
-        <v>68</v>
-      </c>
-      <c r="I93" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="2">
+        <v>126024</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>1080</v>
+        <v>1094</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D94" s="2">
-        <v>242203</v>
+        <v>133270</v>
       </c>
       <c r="E94" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G94" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H94" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="I94" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="2">
+        <v>133270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>1017</v>
+        <v>1095</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="D95" s="2">
-        <v>1017</v>
+        <v>135737</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
         <v>65</v>
@@ -4556,27 +4933,30 @@
         <v>74</v>
       </c>
       <c r="H95" t="s">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J95">
+        <v>239378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>1073</v>
+        <v>1096</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D96" s="2">
-        <v>11796</v>
+        <v>15500</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F96" t="s">
         <v>65</v>
@@ -4585,85 +4965,94 @@
         <v>74</v>
       </c>
       <c r="H96" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="I96" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="2">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>1128</v>
+        <v>1097</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="D97" s="2">
-        <v>236894</v>
+        <v>135737</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G97" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H97" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="I97" t="s">
+        <v>412</v>
+      </c>
+      <c r="J97">
+        <v>135740</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>1100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" s="2">
+        <v>142979</v>
+      </c>
+      <c r="E98" t="s">
+        <v>200</v>
+      </c>
+      <c r="F98" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" t="s">
+        <v>74</v>
+      </c>
+      <c r="H98" t="s">
+        <v>280</v>
+      </c>
+      <c r="I98" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B98" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" t="s">
-        <v>44</v>
-      </c>
-      <c r="D98" s="2">
-        <v>236894</v>
-      </c>
-      <c r="E98" t="s">
-        <v>44</v>
-      </c>
-      <c r="F98" t="s">
-        <v>66</v>
-      </c>
-      <c r="G98" t="s">
-        <v>66</v>
-      </c>
-      <c r="H98" t="s">
-        <v>68</v>
-      </c>
-      <c r="I98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="2">
+        <v>142979</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>1010</v>
+        <v>1101</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>378</v>
+        <v>138</v>
       </c>
       <c r="D99" s="2">
-        <v>236124</v>
+        <v>138312</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
         <v>65</v>
@@ -4672,21 +5061,24 @@
         <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="I99" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J99" s="2">
+        <v>241078</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>1074</v>
+        <v>1102</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="D100" s="2">
         <v>236124</v>
@@ -4701,27 +5093,30 @@
         <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="I100" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="2">
+        <v>236124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D101" s="2">
-        <v>236124</v>
+        <v>238274</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="F101" t="s">
         <v>65</v>
@@ -4730,27 +5125,30 @@
         <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I101" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J101" s="2">
+        <v>238274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>1153</v>
+        <v>1104</v>
       </c>
       <c r="B102" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="D102" s="2">
-        <v>1153</v>
+        <v>135737</v>
       </c>
       <c r="E102" t="s">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
         <v>65</v>
@@ -4759,317 +5157,350 @@
         <v>74</v>
       </c>
       <c r="H102" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="I102" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="J102">
+        <v>135745</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>1033</v>
+        <v>1105</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="C103" t="s">
-        <v>381</v>
+        <v>142</v>
       </c>
       <c r="D103" s="2">
-        <v>1033</v>
+        <v>242625</v>
       </c>
       <c r="E103" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G103" t="s">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="H103" t="s">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J103" s="2">
+        <v>242625</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>1005</v>
+        <v>1106</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="D104" s="2">
-        <v>132352</v>
+        <v>138995</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F104" t="s">
         <v>65</v>
       </c>
       <c r="G104" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>68</v>
+        <v>286</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="J104" s="2">
+        <v>138995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>1137</v>
+        <v>1107</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D105" s="2">
-        <v>132352</v>
+        <v>138995</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F105" t="s">
         <v>65</v>
       </c>
       <c r="G105" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="I105" t="s">
+        <v>413</v>
+      </c>
+      <c r="J105" s="2">
+        <v>138995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>1108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="2">
+        <v>206090</v>
+      </c>
+      <c r="E106" t="s">
+        <v>203</v>
+      </c>
+      <c r="F106" t="s">
+        <v>403</v>
+      </c>
+      <c r="G106" t="s">
+        <v>402</v>
+      </c>
+      <c r="H106" t="s">
+        <v>288</v>
+      </c>
+      <c r="I106" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>1155</v>
-      </c>
-      <c r="B106" t="s">
-        <v>56</v>
-      </c>
-      <c r="C106" t="s">
-        <v>56</v>
-      </c>
-      <c r="D106" s="2">
-        <v>138995</v>
-      </c>
-      <c r="E106" t="s">
-        <v>56</v>
-      </c>
-      <c r="F106" t="s">
-        <v>65</v>
-      </c>
-      <c r="G106" t="s">
-        <v>46</v>
-      </c>
-      <c r="H106" t="s">
-        <v>68</v>
-      </c>
-      <c r="I106" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="2">
+        <v>206090</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B107" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C107" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D107" s="2">
-        <v>138995</v>
+        <v>147511</v>
       </c>
       <c r="E107" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
         <v>65</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H107" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I107" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J107" s="2">
+        <v>147511</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B108" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C108" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D108" s="2">
-        <v>138995</v>
+        <v>240268</v>
       </c>
       <c r="E108" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
         <v>65</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H108" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I108" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J108" s="2">
+        <v>240268</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>1029</v>
+        <v>1111</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="C109" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="D109" s="2">
-        <v>1029</v>
+        <v>16240</v>
       </c>
       <c r="E109" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G109" t="s">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="H109" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="I109" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J109" s="2">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>1042</v>
+        <v>1112</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="C110" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="D110" s="2">
-        <v>126542</v>
+        <v>241683</v>
       </c>
       <c r="E110" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G110" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H110" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="I110" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="2">
+        <v>241683</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>1183</v>
+        <v>1113</v>
       </c>
       <c r="B111" t="s">
-        <v>453</v>
+        <v>150</v>
       </c>
       <c r="C111" t="s">
-        <v>453</v>
+        <v>150</v>
       </c>
       <c r="D111" s="2">
-        <v>999999</v>
+        <v>213977</v>
       </c>
       <c r="E111" t="s">
-        <v>455</v>
+        <v>19</v>
       </c>
       <c r="F111" t="s">
-        <v>456</v>
+        <v>65</v>
       </c>
       <c r="G111" t="s">
-        <v>401</v>
-      </c>
-      <c r="H111" s="6">
-        <v>999999</v>
+        <v>73</v>
+      </c>
+      <c r="H111" t="s">
+        <v>293</v>
       </c>
       <c r="I111" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J111" s="2">
+        <v>213977</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>1096</v>
+        <v>1114</v>
       </c>
       <c r="B112" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C112" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D112" s="2">
-        <v>15500</v>
+        <v>11088</v>
       </c>
       <c r="E112" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G112" t="s">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="H112" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="I112" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="2">
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>1156</v>
+        <v>1115</v>
       </c>
       <c r="B113" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="C113" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D113" s="2">
-        <v>133400</v>
+        <v>120307</v>
       </c>
       <c r="E113" t="s">
-        <v>337</v>
+        <v>183</v>
       </c>
       <c r="F113" t="s">
         <v>65</v>
@@ -5078,27 +5509,30 @@
         <v>74</v>
       </c>
       <c r="H113" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="I113" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J113">
+        <v>146586</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>1018</v>
+        <v>1116</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="D114" s="2">
-        <v>135737</v>
+        <v>120307</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="F114" t="s">
         <v>65</v>
@@ -5107,27 +5541,30 @@
         <v>74</v>
       </c>
       <c r="H114" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="I114" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J114">
+        <v>147590</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>1071</v>
+        <v>1117</v>
       </c>
       <c r="B115" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C115" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D115" s="2">
-        <v>135737</v>
+        <v>120307</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="F115" t="s">
         <v>65</v>
@@ -5136,21 +5573,24 @@
         <v>74</v>
       </c>
       <c r="H115" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="I115" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J115">
+        <v>147593</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>1043</v>
+        <v>1118</v>
       </c>
       <c r="B116" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="C116" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="D116" s="2">
         <v>135737</v>
@@ -5165,56 +5605,62 @@
         <v>74</v>
       </c>
       <c r="H116" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="I116" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>135741</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="B117" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C117" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D117" s="2">
-        <v>135737</v>
+        <v>240093</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="F117" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G117" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H117" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="I117" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J117" s="2">
+        <v>240093</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C118" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D118" s="2">
-        <v>135737</v>
+        <v>120307</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="F118" t="s">
         <v>65</v>
@@ -5223,56 +5669,62 @@
         <v>74</v>
       </c>
       <c r="H118" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I118" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J118">
+        <v>141255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>1061</v>
+        <v>1121</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="C119" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="D119" s="2">
-        <v>135737</v>
+        <v>212612</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="F119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G119" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H119" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="I119" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J119" s="2">
+        <v>212612</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>1062</v>
+        <v>1122</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="C120" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="D120" s="2">
-        <v>135737</v>
+        <v>120307</v>
       </c>
       <c r="E120" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="F120" t="s">
         <v>65</v>
@@ -5281,27 +5733,30 @@
         <v>74</v>
       </c>
       <c r="H120" t="s">
-        <v>245</v>
+        <v>302</v>
       </c>
       <c r="I120" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J120">
+        <v>237378</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C121" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D121" s="2">
-        <v>135737</v>
+        <v>120307</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="F121" t="s">
         <v>65</v>
@@ -5310,56 +5765,62 @@
         <v>74</v>
       </c>
       <c r="H121" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I121" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J121">
+        <v>237377</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>1089</v>
+        <v>1124</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D122" s="2">
-        <v>135737</v>
+        <v>239019</v>
       </c>
       <c r="E122" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="F122" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G122" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H122" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="I122" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J122" s="2">
+        <v>239019</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>1083</v>
+        <v>1125</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="C123" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D123" s="2">
-        <v>135737</v>
+        <v>120307</v>
       </c>
       <c r="E123" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="F123" t="s">
         <v>65</v>
@@ -5368,27 +5829,30 @@
         <v>74</v>
       </c>
       <c r="H123" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="I123" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J123">
+        <v>237376</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>1095</v>
+        <v>1126</v>
       </c>
       <c r="B124" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C124" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="D124" s="2">
-        <v>135737</v>
+        <v>120307</v>
       </c>
       <c r="E124" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="F124" t="s">
         <v>65</v>
@@ -5397,21 +5861,24 @@
         <v>74</v>
       </c>
       <c r="H124" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="I124" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J124">
+        <v>237375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>1075</v>
+        <v>1127</v>
       </c>
       <c r="B125" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="D125" s="2">
         <v>135737</v>
@@ -5426,50 +5893,56 @@
         <v>74</v>
       </c>
       <c r="H125" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="I125" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <v>135739</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>1090</v>
+        <v>1128</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C126" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="D126" s="2">
-        <v>135737</v>
+        <v>236894</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F126" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G126" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H126" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="I126" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J126" s="2">
+        <v>236894</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>1081</v>
+        <v>1129</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="C127" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="D127" s="2">
         <v>135737</v>
@@ -5484,21 +5957,24 @@
         <v>74</v>
       </c>
       <c r="H127" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="I127" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>135752</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>1047</v>
+        <v>1130</v>
       </c>
       <c r="B128" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="C128" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="D128" s="2">
         <v>135737</v>
@@ -5513,21 +5989,24 @@
         <v>74</v>
       </c>
       <c r="H128" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="I128" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>140797</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>1085</v>
+        <v>1131</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="C129" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="D129" s="2">
         <v>135737</v>
@@ -5542,56 +6021,62 @@
         <v>74</v>
       </c>
       <c r="H129" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="I129" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <v>136742</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>1054</v>
+        <v>1132</v>
       </c>
       <c r="B130" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="C130" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="D130" s="2">
-        <v>135737</v>
+        <v>239680</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="F130" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G130" t="s">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="H130" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="I130" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J130" s="2">
+        <v>239680</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="B131" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D131" s="2">
-        <v>135737</v>
+        <v>141945</v>
       </c>
       <c r="E131" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="F131" t="s">
         <v>65</v>
@@ -5600,56 +6085,62 @@
         <v>74</v>
       </c>
       <c r="H131" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="I131" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J131" s="2">
+        <v>141945</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>1118</v>
+        <v>1134</v>
       </c>
       <c r="B132" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C132" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D132" s="2">
-        <v>135737</v>
+        <v>202672</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="F132" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G132" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="H132" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I132" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J132" s="2">
+        <v>202672</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>1044</v>
+        <v>1135</v>
       </c>
       <c r="B133" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="C133" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="D133" s="2">
-        <v>135737</v>
+        <v>141958</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="F133" t="s">
         <v>65</v>
@@ -5658,114 +6149,126 @@
         <v>74</v>
       </c>
       <c r="H133" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="I133" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J133" s="2">
+        <v>141958</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>1055</v>
+        <v>1136</v>
       </c>
       <c r="B134" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="C134" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="D134" s="2">
-        <v>135737</v>
+        <v>11088</v>
       </c>
       <c r="E134" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="F134" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G134" t="s">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="H134" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="I134" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J134" s="2">
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>1097</v>
+        <v>1137</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C135" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="D135" s="2">
-        <v>135737</v>
+        <v>132352</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
         <v>65</v>
       </c>
       <c r="G135" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H135" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="I135" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J135" s="2">
+        <v>132352</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>1104</v>
+        <v>1138</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="C136" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D136" s="2">
-        <v>135737</v>
+        <v>146685</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
         <v>65</v>
       </c>
       <c r="G136" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H136" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="I136" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J136" s="2">
+        <v>146685</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>1086</v>
+        <v>1139</v>
       </c>
       <c r="B137" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="C137" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D137" s="2">
-        <v>135737</v>
+        <v>242245</v>
       </c>
       <c r="E137" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="F137" t="s">
         <v>65</v>
@@ -5774,114 +6277,126 @@
         <v>74</v>
       </c>
       <c r="H137" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="I137" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J137" s="2">
+        <v>242245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>1003</v>
+        <v>1140</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="D138" s="2">
-        <v>1003</v>
+        <v>239367</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="F138" t="s">
         <v>65</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H138" t="s">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="I138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J138" s="2">
+        <v>239367</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>1111</v>
+        <v>1141</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="C139" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="D139" s="2">
-        <v>16240</v>
+        <v>237177</v>
       </c>
       <c r="E139" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F139" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G139" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H139" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="I139" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="2">
+        <v>237177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>1011</v>
+        <v>1142</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="C140" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="D140" s="2">
-        <v>1011</v>
+        <v>790</v>
       </c>
       <c r="E140" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="F140" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G140" t="s">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="H140" t="s">
-        <v>68</v>
+        <v>322</v>
       </c>
       <c r="I140" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J140" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B141" t="s">
-        <v>178</v>
+        <v>325</v>
       </c>
       <c r="C141" t="s">
-        <v>178</v>
+        <v>325</v>
       </c>
       <c r="D141" s="2">
-        <v>237177</v>
+        <v>1002</v>
       </c>
       <c r="E141" t="s">
-        <v>217</v>
+        <v>7</v>
       </c>
       <c r="F141" t="s">
         <v>66</v>
@@ -5890,27 +6405,30 @@
         <v>66</v>
       </c>
       <c r="H141" t="s">
-        <v>321</v>
+        <v>68</v>
       </c>
       <c r="I141" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J141" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>1056</v>
+        <v>1144</v>
       </c>
       <c r="B142" t="s">
-        <v>97</v>
+        <v>327</v>
       </c>
       <c r="C142" t="s">
-        <v>97</v>
+        <v>327</v>
       </c>
       <c r="D142" s="2">
-        <v>216827</v>
+        <v>1023</v>
       </c>
       <c r="E142" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="F142" t="s">
         <v>66</v>
@@ -5919,259 +6437,286 @@
         <v>66</v>
       </c>
       <c r="H142" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="I142" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="J142" s="2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>1024</v>
+        <v>1145</v>
       </c>
       <c r="B143" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="C143" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="D143" s="2">
-        <v>1024</v>
+        <v>1002</v>
       </c>
       <c r="E143" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F143" t="s">
-        <v>403</v>
+        <v>66</v>
       </c>
       <c r="G143" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="H143" t="s">
         <v>68</v>
       </c>
       <c r="I143" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J143" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>1088</v>
+        <v>1146</v>
       </c>
       <c r="B144" t="s">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="C144" t="s">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="D144" s="2">
-        <v>239843</v>
+        <v>1023</v>
       </c>
       <c r="E144" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="F144" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H144" t="s">
-        <v>271</v>
+        <v>68</v>
       </c>
       <c r="I144" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="J144" s="2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>1166</v>
+        <v>1147</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="C145" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="D145" s="2">
-        <v>1166</v>
+        <v>213977</v>
       </c>
       <c r="E145" t="s">
-        <v>406</v>
+        <v>19</v>
       </c>
       <c r="F145" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G145" t="s">
-        <v>340</v>
+        <v>73</v>
       </c>
       <c r="H145" t="s">
         <v>68</v>
       </c>
       <c r="I145" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J145" s="2">
+        <v>213977</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>1119</v>
+        <v>1148</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>330</v>
       </c>
       <c r="C146" t="s">
-        <v>156</v>
+        <v>330</v>
       </c>
       <c r="D146" s="2">
-        <v>240093</v>
+        <v>213977</v>
       </c>
       <c r="E146" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="F146" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G146" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H146" t="s">
-        <v>299</v>
+        <v>68</v>
       </c>
       <c r="I146" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J146" s="2">
+        <v>213977</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>1179</v>
+        <v>1149</v>
       </c>
       <c r="B147" t="s">
-        <v>443</v>
+        <v>182</v>
       </c>
       <c r="C147" t="s">
-        <v>443</v>
+        <v>182</v>
       </c>
       <c r="D147" s="2">
-        <v>11087</v>
+        <v>138312</v>
       </c>
       <c r="E147" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="F147" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G147" t="s">
-        <v>402</v>
+        <v>46</v>
       </c>
       <c r="H147" t="s">
-        <v>444</v>
+        <v>68</v>
       </c>
       <c r="I147" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="J147" s="2">
+        <v>138312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="B148" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C148" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="D148" s="2">
-        <v>11088</v>
+        <v>1025</v>
       </c>
       <c r="E148" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G148" t="s">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="H148" t="s">
-        <v>420</v>
+        <v>68</v>
       </c>
       <c r="I148" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="J148" s="2">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>1136</v>
+        <v>1151</v>
       </c>
       <c r="B149" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C149" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D149" s="2">
-        <v>11088</v>
+        <v>120307</v>
       </c>
       <c r="E149" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F149" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G149" t="s">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="H149" t="s">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="I149" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J149" s="2">
+        <v>120307</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>1114</v>
+        <v>1152</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D150" s="2">
-        <v>11088</v>
+        <v>129276</v>
       </c>
       <c r="E150" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F150" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G150" t="s">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="H150" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="I150" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="2">
+        <v>129276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>1022</v>
+        <v>1153</v>
       </c>
       <c r="B151" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="D151" s="2">
-        <v>1022</v>
+        <v>1153</v>
       </c>
       <c r="E151" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="F151" t="s">
         <v>65</v>
@@ -6183,53 +6728,59 @@
         <v>68</v>
       </c>
       <c r="I151" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="J151" s="2">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>1139</v>
+        <v>1154</v>
       </c>
       <c r="B152" t="s">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="C152" t="s">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="D152" s="2">
-        <v>242245</v>
+        <v>1154</v>
       </c>
       <c r="E152" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="F152" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G152" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H152" t="s">
-        <v>319</v>
+        <v>68</v>
       </c>
       <c r="I152" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="J152" s="2">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>1103</v>
+        <v>1155</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="C153" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="D153" s="2">
-        <v>238274</v>
+        <v>138995</v>
       </c>
       <c r="E153" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="F153" t="s">
         <v>65</v>
@@ -6238,27 +6789,30 @@
         <v>46</v>
       </c>
       <c r="H153" t="s">
-        <v>283</v>
+        <v>68</v>
       </c>
       <c r="I153" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="J153" s="2">
+        <v>138995</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>1173</v>
+        <v>1156</v>
       </c>
       <c r="B154" t="s">
-        <v>425</v>
+        <v>336</v>
       </c>
       <c r="C154" t="s">
-        <v>425</v>
+        <v>336</v>
       </c>
       <c r="D154" s="2">
-        <v>239228</v>
+        <v>133400</v>
       </c>
       <c r="E154" t="s">
-        <v>427</v>
+        <v>337</v>
       </c>
       <c r="F154" t="s">
         <v>65</v>
@@ -6267,375 +6821,414 @@
         <v>74</v>
       </c>
       <c r="H154" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
       <c r="I154" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="2">
+        <v>133400</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>1031</v>
+        <v>1157</v>
       </c>
       <c r="B155" t="s">
-        <v>36</v>
+        <v>373</v>
       </c>
       <c r="C155" t="s">
-        <v>49</v>
+        <v>373</v>
       </c>
       <c r="D155" s="2">
-        <v>1031</v>
+        <v>201559</v>
       </c>
       <c r="E155" t="s">
-        <v>49</v>
+        <v>375</v>
       </c>
       <c r="F155" t="s">
+        <v>65</v>
+      </c>
+      <c r="G155" t="s">
+        <v>376</v>
+      </c>
+      <c r="H155" t="s">
+        <v>374</v>
+      </c>
+      <c r="I155" t="s">
+        <v>410</v>
+      </c>
+      <c r="J155" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>1158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>386</v>
+      </c>
+      <c r="C156" t="s">
+        <v>386</v>
+      </c>
+      <c r="D156" s="2">
+        <v>201559</v>
+      </c>
+      <c r="E156" t="s">
+        <v>375</v>
+      </c>
+      <c r="F156" t="s">
+        <v>65</v>
+      </c>
+      <c r="G156" t="s">
+        <v>376</v>
+      </c>
+      <c r="H156" t="s">
+        <v>387</v>
+      </c>
+      <c r="I156" t="s">
+        <v>410</v>
+      </c>
+      <c r="J156" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>1159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>390</v>
+      </c>
+      <c r="C157" t="s">
+        <v>390</v>
+      </c>
+      <c r="D157" s="2">
+        <v>201559</v>
+      </c>
+      <c r="E157" t="s">
+        <v>375</v>
+      </c>
+      <c r="F157" t="s">
+        <v>65</v>
+      </c>
+      <c r="G157" t="s">
+        <v>376</v>
+      </c>
+      <c r="H157" t="s">
+        <v>389</v>
+      </c>
+      <c r="I157" t="s">
+        <v>410</v>
+      </c>
+      <c r="J157" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>1160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>391</v>
+      </c>
+      <c r="C158" t="s">
+        <v>391</v>
+      </c>
+      <c r="D158" s="2">
+        <v>201559</v>
+      </c>
+      <c r="E158" t="s">
+        <v>375</v>
+      </c>
+      <c r="F158" t="s">
+        <v>65</v>
+      </c>
+      <c r="G158" t="s">
+        <v>376</v>
+      </c>
+      <c r="H158" t="s">
+        <v>395</v>
+      </c>
+      <c r="I158" t="s">
+        <v>410</v>
+      </c>
+      <c r="J158" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>1161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>392</v>
+      </c>
+      <c r="C159" t="s">
+        <v>392</v>
+      </c>
+      <c r="D159" s="2">
+        <v>201559</v>
+      </c>
+      <c r="E159" t="s">
+        <v>375</v>
+      </c>
+      <c r="F159" t="s">
+        <v>65</v>
+      </c>
+      <c r="G159" t="s">
+        <v>376</v>
+      </c>
+      <c r="H159" t="s">
+        <v>396</v>
+      </c>
+      <c r="I159" t="s">
+        <v>410</v>
+      </c>
+      <c r="J159" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>1162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>393</v>
+      </c>
+      <c r="C160" t="s">
+        <v>393</v>
+      </c>
+      <c r="D160" s="2">
+        <v>201559</v>
+      </c>
+      <c r="E160" t="s">
+        <v>375</v>
+      </c>
+      <c r="F160" t="s">
+        <v>65</v>
+      </c>
+      <c r="G160" t="s">
+        <v>376</v>
+      </c>
+      <c r="H160" t="s">
+        <v>397</v>
+      </c>
+      <c r="I160" t="s">
+        <v>410</v>
+      </c>
+      <c r="J160" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>1163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>394</v>
+      </c>
+      <c r="C161" t="s">
+        <v>394</v>
+      </c>
+      <c r="D161" s="2">
+        <v>201559</v>
+      </c>
+      <c r="E161" t="s">
+        <v>375</v>
+      </c>
+      <c r="F161" t="s">
+        <v>65</v>
+      </c>
+      <c r="G161" t="s">
+        <v>376</v>
+      </c>
+      <c r="H161" t="s">
+        <v>398</v>
+      </c>
+      <c r="I161" t="s">
+        <v>410</v>
+      </c>
+      <c r="J161" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>1164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>399</v>
+      </c>
+      <c r="C162" t="s">
+        <v>399</v>
+      </c>
+      <c r="D162" s="2">
+        <v>201559</v>
+      </c>
+      <c r="E162" t="s">
+        <v>375</v>
+      </c>
+      <c r="F162" t="s">
+        <v>65</v>
+      </c>
+      <c r="G162" t="s">
+        <v>376</v>
+      </c>
+      <c r="H162" t="s">
+        <v>400</v>
+      </c>
+      <c r="I162" t="s">
+        <v>410</v>
+      </c>
+      <c r="J162" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>1165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>404</v>
+      </c>
+      <c r="C163" t="s">
+        <v>404</v>
+      </c>
+      <c r="D163" s="2">
+        <v>201559</v>
+      </c>
+      <c r="E163" t="s">
+        <v>375</v>
+      </c>
+      <c r="F163" t="s">
+        <v>65</v>
+      </c>
+      <c r="G163" t="s">
+        <v>376</v>
+      </c>
+      <c r="H163" t="s">
+        <v>405</v>
+      </c>
+      <c r="I163" t="s">
+        <v>410</v>
+      </c>
+      <c r="J163" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>1166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>406</v>
+      </c>
+      <c r="C164" t="s">
+        <v>406</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1166</v>
+      </c>
+      <c r="E164" t="s">
+        <v>406</v>
+      </c>
+      <c r="F164" t="s">
         <v>403</v>
       </c>
-      <c r="G155" t="s">
-        <v>75</v>
-      </c>
-      <c r="H155" t="s">
-        <v>68</v>
-      </c>
-      <c r="I155" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>1045</v>
-      </c>
-      <c r="B156" t="s">
-        <v>86</v>
-      </c>
-      <c r="C156" t="s">
-        <v>86</v>
-      </c>
-      <c r="D156" s="2">
-        <v>141958</v>
-      </c>
-      <c r="E156" t="s">
-        <v>186</v>
-      </c>
-      <c r="F156" t="s">
-        <v>65</v>
-      </c>
-      <c r="G156" t="s">
-        <v>74</v>
-      </c>
-      <c r="H156" t="s">
-        <v>228</v>
-      </c>
-      <c r="I156" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>1135</v>
-      </c>
-      <c r="B157" t="s">
-        <v>172</v>
-      </c>
-      <c r="C157" t="s">
-        <v>172</v>
-      </c>
-      <c r="D157" s="2">
-        <v>141958</v>
-      </c>
-      <c r="E157" t="s">
-        <v>186</v>
-      </c>
-      <c r="F157" t="s">
-        <v>65</v>
-      </c>
-      <c r="G157" t="s">
-        <v>74</v>
-      </c>
-      <c r="H157" t="s">
-        <v>315</v>
-      </c>
-      <c r="I157" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>1184</v>
-      </c>
-      <c r="B158" t="s">
-        <v>454</v>
-      </c>
-      <c r="C158" t="s">
-        <v>454</v>
-      </c>
-      <c r="D158" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E158" t="s">
-        <v>455</v>
-      </c>
-      <c r="F158" t="s">
-        <v>456</v>
-      </c>
-      <c r="G158" t="s">
-        <v>401</v>
-      </c>
-      <c r="H158" s="6">
-        <v>999999</v>
-      </c>
-      <c r="I158" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>1030</v>
-      </c>
-      <c r="B159" t="s">
-        <v>35</v>
-      </c>
-      <c r="C159" t="s">
-        <v>35</v>
-      </c>
-      <c r="D159" s="2">
-        <v>1030</v>
-      </c>
-      <c r="E159" t="s">
-        <v>63</v>
-      </c>
-      <c r="F159" t="s">
-        <v>72</v>
-      </c>
-      <c r="G159" t="s">
-        <v>72</v>
-      </c>
-      <c r="H159" t="s">
-        <v>68</v>
-      </c>
-      <c r="I159" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>1169</v>
-      </c>
-      <c r="B160" t="s">
-        <v>436</v>
-      </c>
-      <c r="C160" t="s">
-        <v>437</v>
-      </c>
-      <c r="D160" s="2">
-        <v>136130</v>
-      </c>
-      <c r="E160" t="s">
-        <v>437</v>
-      </c>
-      <c r="F160" t="s">
-        <v>403</v>
-      </c>
-      <c r="G160" t="s">
-        <v>75</v>
-      </c>
-      <c r="H160" t="s">
-        <v>438</v>
-      </c>
-      <c r="I160" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>1032</v>
-      </c>
-      <c r="B161" t="s">
-        <v>37</v>
-      </c>
-      <c r="C161" t="s">
-        <v>37</v>
-      </c>
-      <c r="D161" s="2">
-        <v>1032</v>
-      </c>
-      <c r="E161" t="s">
-        <v>64</v>
-      </c>
-      <c r="F161" t="s">
-        <v>65</v>
-      </c>
-      <c r="G161" t="s">
-        <v>46</v>
-      </c>
-      <c r="H161" t="s">
-        <v>68</v>
-      </c>
-      <c r="I161" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>1019</v>
-      </c>
-      <c r="B162" t="s">
-        <v>24</v>
-      </c>
-      <c r="C162" t="s">
-        <v>57</v>
-      </c>
-      <c r="D162" s="2">
-        <v>1019</v>
-      </c>
-      <c r="E162" t="s">
-        <v>57</v>
-      </c>
-      <c r="F162" t="s">
-        <v>403</v>
-      </c>
-      <c r="G162" t="s">
-        <v>388</v>
-      </c>
-      <c r="H162" t="s">
-        <v>68</v>
-      </c>
-      <c r="I162" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>1112</v>
-      </c>
-      <c r="B163" t="s">
-        <v>149</v>
-      </c>
-      <c r="C163" t="s">
-        <v>149</v>
-      </c>
-      <c r="D163" s="2">
-        <v>241683</v>
-      </c>
-      <c r="E163" t="s">
-        <v>207</v>
-      </c>
-      <c r="F163" t="s">
-        <v>66</v>
-      </c>
-      <c r="G163" t="s">
-        <v>66</v>
-      </c>
-      <c r="H163" t="s">
-        <v>292</v>
-      </c>
-      <c r="I163" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>1023</v>
-      </c>
-      <c r="B164" t="s">
-        <v>28</v>
-      </c>
-      <c r="C164" t="s">
-        <v>380</v>
-      </c>
-      <c r="D164" s="2">
-        <v>1023</v>
-      </c>
-      <c r="E164" t="s">
-        <v>60</v>
-      </c>
-      <c r="F164" t="s">
-        <v>66</v>
-      </c>
       <c r="G164" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="H164" t="s">
         <v>68</v>
       </c>
       <c r="I164" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="J164" s="2">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>1144</v>
+        <v>1167</v>
       </c>
       <c r="B165" t="s">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="D165" s="2">
-        <v>1023</v>
+        <v>1167</v>
       </c>
       <c r="E165" t="s">
-        <v>60</v>
+        <v>407</v>
       </c>
       <c r="F165" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G165" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H165" t="s">
         <v>68</v>
       </c>
       <c r="I165" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="J165" s="2">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>1146</v>
+        <v>1168</v>
       </c>
       <c r="B166" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="C166" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="D166" s="2">
-        <v>1023</v>
+        <v>242878</v>
       </c>
       <c r="E166" t="s">
-        <v>60</v>
+        <v>417</v>
       </c>
       <c r="F166" t="s">
-        <v>66</v>
+        <v>403</v>
       </c>
       <c r="G166" t="s">
-        <v>66</v>
+        <v>402</v>
       </c>
       <c r="H166" t="s">
-        <v>68</v>
+        <v>418</v>
       </c>
       <c r="I166" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J166" s="2">
+        <v>242878</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>1021</v>
+        <v>1169</v>
       </c>
       <c r="B167" t="s">
-        <v>26</v>
+        <v>435</v>
       </c>
       <c r="C167" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="D167" s="2">
-        <v>1021</v>
+        <v>136130</v>
       </c>
       <c r="E167" t="s">
-        <v>59</v>
+        <v>436</v>
       </c>
       <c r="F167" t="s">
         <v>403</v>
@@ -6644,346 +7237,382 @@
         <v>75</v>
       </c>
       <c r="H167" t="s">
-        <v>68</v>
+        <v>437</v>
       </c>
       <c r="I167" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J167" s="2">
+        <v>136130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>1027</v>
+        <v>1170</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="C168" t="s">
-        <v>48</v>
+        <v>419</v>
       </c>
       <c r="D168" s="2">
-        <v>1027</v>
+        <v>11088</v>
       </c>
       <c r="E168" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="F168" t="s">
         <v>403</v>
       </c>
       <c r="G168" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="H168" t="s">
-        <v>68</v>
+        <v>420</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="J168" s="2">
+        <v>22366</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="B169" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C169" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D169" s="2">
-        <v>1168</v>
+        <v>120307</v>
       </c>
       <c r="E169" t="s">
-        <v>417</v>
+        <v>183</v>
       </c>
       <c r="F169" t="s">
+        <v>65</v>
+      </c>
+      <c r="G169" t="s">
+        <v>74</v>
+      </c>
+      <c r="H169" t="s">
+        <v>422</v>
+      </c>
+      <c r="I169" t="s">
+        <v>409</v>
+      </c>
+      <c r="J169">
+        <v>147495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>1172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>423</v>
+      </c>
+      <c r="C170" t="s">
+        <v>423</v>
+      </c>
+      <c r="D170" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E170" t="s">
+        <v>183</v>
+      </c>
+      <c r="F170" t="s">
+        <v>65</v>
+      </c>
+      <c r="G170" t="s">
+        <v>74</v>
+      </c>
+      <c r="H170" t="s">
+        <v>424</v>
+      </c>
+      <c r="I170" t="s">
+        <v>409</v>
+      </c>
+      <c r="J170">
+        <v>243413</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>1173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>425</v>
+      </c>
+      <c r="C171" t="s">
+        <v>425</v>
+      </c>
+      <c r="D171" s="2">
+        <v>239228</v>
+      </c>
+      <c r="E171" t="s">
+        <v>427</v>
+      </c>
+      <c r="F171" t="s">
+        <v>65</v>
+      </c>
+      <c r="G171" t="s">
+        <v>74</v>
+      </c>
+      <c r="H171" t="s">
+        <v>426</v>
+      </c>
+      <c r="I171" t="s">
+        <v>414</v>
+      </c>
+      <c r="J171" s="2">
+        <v>239228</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>1174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>428</v>
+      </c>
+      <c r="C172" t="s">
+        <v>428</v>
+      </c>
+      <c r="D172" s="2">
+        <v>243376</v>
+      </c>
+      <c r="E172" t="s">
+        <v>430</v>
+      </c>
+      <c r="F172" t="s">
+        <v>65</v>
+      </c>
+      <c r="G172" t="s">
+        <v>74</v>
+      </c>
+      <c r="H172" t="s">
+        <v>429</v>
+      </c>
+      <c r="I172" t="s">
+        <v>414</v>
+      </c>
+      <c r="J172" s="2">
+        <v>243376</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>1175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>431</v>
+      </c>
+      <c r="C173" t="s">
+        <v>431</v>
+      </c>
+      <c r="D173" s="2">
+        <v>207298</v>
+      </c>
+      <c r="E173" t="s">
+        <v>460</v>
+      </c>
+      <c r="F173" t="s">
+        <v>65</v>
+      </c>
+      <c r="G173" t="s">
+        <v>74</v>
+      </c>
+      <c r="H173" t="s">
+        <v>432</v>
+      </c>
+      <c r="I173" t="s">
+        <v>414</v>
+      </c>
+      <c r="J173" s="2">
+        <v>207298</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>1176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>433</v>
+      </c>
+      <c r="C174" t="s">
+        <v>433</v>
+      </c>
+      <c r="D174" s="2">
+        <v>201559</v>
+      </c>
+      <c r="E174" t="s">
+        <v>375</v>
+      </c>
+      <c r="F174" t="s">
+        <v>65</v>
+      </c>
+      <c r="G174" t="s">
+        <v>376</v>
+      </c>
+      <c r="H174" t="s">
+        <v>434</v>
+      </c>
+      <c r="I174" t="s">
+        <v>410</v>
+      </c>
+      <c r="J174" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>1177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>438</v>
+      </c>
+      <c r="C175" t="s">
+        <v>441</v>
+      </c>
+      <c r="D175" s="2">
+        <v>2580</v>
+      </c>
+      <c r="E175" t="s">
+        <v>440</v>
+      </c>
+      <c r="F175" t="s">
         <v>403</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G175" t="s">
         <v>402</v>
       </c>
-      <c r="H169" t="s">
-        <v>418</v>
-      </c>
-      <c r="I169" t="s">
+      <c r="H175" t="s">
+        <v>439</v>
+      </c>
+      <c r="I175" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B170" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" s="2">
-        <v>1009</v>
-      </c>
-      <c r="E170" t="s">
-        <v>14</v>
-      </c>
-      <c r="F170" t="s">
-        <v>65</v>
-      </c>
-      <c r="G170" t="s">
-        <v>339</v>
-      </c>
-      <c r="H170" t="s">
-        <v>68</v>
-      </c>
-      <c r="I170" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B171" t="s">
-        <v>18</v>
-      </c>
-      <c r="C171" t="s">
-        <v>56</v>
-      </c>
-      <c r="D171" s="2">
-        <v>138995</v>
-      </c>
-      <c r="E171" t="s">
-        <v>56</v>
-      </c>
-      <c r="F171" t="s">
-        <v>65</v>
-      </c>
-      <c r="G171" t="s">
-        <v>46</v>
-      </c>
-      <c r="H171" t="s">
-        <v>68</v>
-      </c>
-      <c r="I171" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>1150</v>
-      </c>
-      <c r="B172" t="s">
-        <v>331</v>
-      </c>
-      <c r="C172" t="s">
-        <v>331</v>
-      </c>
-      <c r="D172" s="2">
-        <v>1025</v>
-      </c>
-      <c r="E172" t="s">
-        <v>47</v>
-      </c>
-      <c r="F172" t="s">
-        <v>65</v>
-      </c>
-      <c r="G172" t="s">
-        <v>76</v>
-      </c>
-      <c r="H172" t="s">
-        <v>68</v>
-      </c>
-      <c r="I172" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>1025</v>
-      </c>
-      <c r="B173" t="s">
-        <v>30</v>
-      </c>
-      <c r="C173" t="s">
-        <v>47</v>
-      </c>
-      <c r="D173" s="2">
-        <v>1025</v>
-      </c>
-      <c r="E173" t="s">
-        <v>47</v>
-      </c>
-      <c r="F173" t="s">
-        <v>65</v>
-      </c>
-      <c r="G173" t="s">
-        <v>76</v>
-      </c>
-      <c r="H173" t="s">
-        <v>68</v>
-      </c>
-      <c r="I173" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>1134</v>
-      </c>
-      <c r="B174" t="s">
-        <v>171</v>
-      </c>
-      <c r="C174" t="s">
-        <v>171</v>
-      </c>
-      <c r="D174" s="2">
-        <v>202672</v>
-      </c>
-      <c r="E174" t="s">
-        <v>214</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="J175" s="2">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>1178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>433</v>
+      </c>
+      <c r="C176" t="s">
+        <v>433</v>
+      </c>
+      <c r="D176" s="2">
+        <v>201559</v>
+      </c>
+      <c r="E176" t="s">
+        <v>375</v>
+      </c>
+      <c r="F176" t="s">
+        <v>65</v>
+      </c>
+      <c r="G176" t="s">
+        <v>376</v>
+      </c>
+      <c r="H176" t="s">
+        <v>405</v>
+      </c>
+      <c r="I176" t="s">
+        <v>410</v>
+      </c>
+      <c r="J176" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>1179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>442</v>
+      </c>
+      <c r="C177" t="s">
+        <v>442</v>
+      </c>
+      <c r="D177" s="2">
+        <v>11088</v>
+      </c>
+      <c r="E177" t="s">
+        <v>208</v>
+      </c>
+      <c r="F177" t="s">
         <v>403</v>
       </c>
-      <c r="G174" t="s">
-        <v>180</v>
-      </c>
-      <c r="H174" t="s">
-        <v>314</v>
-      </c>
-      <c r="I174" t="s">
+      <c r="G177" t="s">
+        <v>402</v>
+      </c>
+      <c r="H177" t="s">
+        <v>443</v>
+      </c>
+      <c r="I177" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>1014</v>
-      </c>
-      <c r="B175" t="s">
-        <v>19</v>
-      </c>
-      <c r="C175" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="2">
-        <v>213977</v>
-      </c>
-      <c r="E175" t="s">
-        <v>19</v>
-      </c>
-      <c r="F175" t="s">
-        <v>65</v>
-      </c>
-      <c r="G175" t="s">
-        <v>73</v>
-      </c>
-      <c r="H175" t="s">
-        <v>68</v>
-      </c>
-      <c r="I175" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>1147</v>
-      </c>
-      <c r="B176" t="s">
-        <v>329</v>
-      </c>
-      <c r="C176" t="s">
-        <v>329</v>
-      </c>
-      <c r="D176" s="2">
-        <v>213977</v>
-      </c>
-      <c r="E176" t="s">
-        <v>19</v>
-      </c>
-      <c r="F176" t="s">
-        <v>65</v>
-      </c>
-      <c r="G176" t="s">
-        <v>73</v>
-      </c>
-      <c r="H176" t="s">
-        <v>68</v>
-      </c>
-      <c r="I176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>1148</v>
-      </c>
-      <c r="B177" t="s">
-        <v>330</v>
-      </c>
-      <c r="C177" t="s">
-        <v>330</v>
-      </c>
-      <c r="D177" s="2">
-        <v>213977</v>
-      </c>
-      <c r="E177" t="s">
-        <v>19</v>
-      </c>
-      <c r="F177" t="s">
-        <v>65</v>
-      </c>
-      <c r="G177" t="s">
-        <v>73</v>
-      </c>
-      <c r="H177" t="s">
-        <v>68</v>
-      </c>
-      <c r="I177" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="2">
+        <v>126771</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>1113</v>
+        <v>1180</v>
       </c>
       <c r="B178" t="s">
-        <v>150</v>
+        <v>445</v>
       </c>
       <c r="C178" t="s">
-        <v>150</v>
+        <v>445</v>
       </c>
       <c r="D178" s="2">
-        <v>213977</v>
+        <v>2580</v>
       </c>
       <c r="E178" t="s">
-        <v>19</v>
+        <v>440</v>
       </c>
       <c r="F178" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="G178" t="s">
-        <v>73</v>
+        <v>402</v>
       </c>
       <c r="H178" t="s">
-        <v>293</v>
+        <v>446</v>
       </c>
       <c r="I178" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="2">
+        <v>141291</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B179" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C179" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D179" s="2">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="E179" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F179" t="s">
         <v>403</v>
@@ -6997,138 +7626,153 @@
       <c r="I179" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="2">
+        <v>120219</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="B180" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C180" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D180" s="2">
-        <v>2580</v>
+        <v>120307</v>
       </c>
       <c r="E180" t="s">
-        <v>441</v>
+        <v>183</v>
       </c>
       <c r="F180" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G180" t="s">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="H180" t="s">
-        <v>440</v>
+        <v>251</v>
       </c>
       <c r="I180" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="J180">
+        <v>120307</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B181" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C181" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D181" s="2">
-        <v>2579</v>
+        <v>201559</v>
       </c>
       <c r="E181" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="F181" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="G181" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="H181" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="I181" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="J181" s="2">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>1015</v>
+        <v>1183</v>
       </c>
       <c r="B182" t="s">
-        <v>20</v>
+        <v>452</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>452</v>
       </c>
       <c r="D182" s="2">
-        <v>1015</v>
+        <v>1183</v>
       </c>
       <c r="E182" t="s">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="F182" t="s">
-        <v>65</v>
+        <v>455</v>
       </c>
       <c r="G182" t="s">
-        <v>339</v>
-      </c>
-      <c r="H182" t="s">
+        <v>401</v>
+      </c>
+      <c r="H182" s="5" t="s">
         <v>68</v>
       </c>
       <c r="I182" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="J182" s="2">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>1110</v>
+        <v>1184</v>
       </c>
       <c r="B183" t="s">
-        <v>147</v>
+        <v>453</v>
       </c>
       <c r="C183" t="s">
-        <v>147</v>
+        <v>453</v>
       </c>
       <c r="D183" s="2">
-        <v>240268</v>
+        <v>1184</v>
       </c>
       <c r="E183" t="s">
-        <v>205</v>
+        <v>454</v>
       </c>
       <c r="F183" t="s">
-        <v>65</v>
+        <v>455</v>
       </c>
       <c r="G183" t="s">
-        <v>74</v>
-      </c>
-      <c r="H183" t="s">
-        <v>290</v>
+        <v>401</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="I183" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="J183" s="2">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>1185</v>
       </c>
       <c r="B184" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C184" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D184" s="2">
         <v>1185</v>
       </c>
       <c r="E184" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F184" t="s">
         <v>65</v>
@@ -7140,21 +7784,24 @@
         <v>68</v>
       </c>
       <c r="I184" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="J184" s="2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>1186</v>
       </c>
       <c r="B185" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C185" t="s">
-        <v>459</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
+      </c>
+      <c r="D185">
+        <v>201559</v>
       </c>
       <c r="E185" t="s">
         <v>375</v>
@@ -7166,26 +7813,698 @@
         <v>376</v>
       </c>
       <c r="H185" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I185" t="s">
         <v>410</v>
       </c>
+      <c r="J185">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>1187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>461</v>
+      </c>
+      <c r="C186" t="s">
+        <v>461</v>
+      </c>
+      <c r="D186" s="2">
+        <v>7200</v>
+      </c>
+      <c r="E186" t="s">
+        <v>181</v>
+      </c>
+      <c r="F186" t="s">
+        <v>65</v>
+      </c>
+      <c r="G186" t="s">
+        <v>74</v>
+      </c>
+      <c r="H186" t="s">
+        <v>255</v>
+      </c>
+      <c r="I186" t="s">
+        <v>414</v>
+      </c>
+      <c r="J186" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>1188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>462</v>
+      </c>
+      <c r="C187" t="s">
+        <v>462</v>
+      </c>
+      <c r="D187" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E187" t="s">
+        <v>183</v>
+      </c>
+      <c r="F187" t="s">
+        <v>65</v>
+      </c>
+      <c r="G187" t="s">
+        <v>74</v>
+      </c>
+      <c r="H187" t="s">
+        <v>242</v>
+      </c>
+      <c r="I187" t="s">
+        <v>409</v>
+      </c>
+      <c r="J187">
+        <v>142024</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>1189</v>
+      </c>
+      <c r="B188" t="s">
+        <v>463</v>
+      </c>
+      <c r="C188" t="s">
+        <v>463</v>
+      </c>
+      <c r="D188" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E188" t="s">
+        <v>183</v>
+      </c>
+      <c r="F188" t="s">
+        <v>65</v>
+      </c>
+      <c r="G188" t="s">
+        <v>74</v>
+      </c>
+      <c r="H188" t="s">
+        <v>221</v>
+      </c>
+      <c r="I188" t="s">
+        <v>409</v>
+      </c>
+      <c r="J188">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>1190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>464</v>
+      </c>
+      <c r="C189" t="s">
+        <v>464</v>
+      </c>
+      <c r="D189" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E189" t="s">
+        <v>183</v>
+      </c>
+      <c r="F189" t="s">
+        <v>65</v>
+      </c>
+      <c r="G189" t="s">
+        <v>74</v>
+      </c>
+      <c r="H189" t="s">
+        <v>247</v>
+      </c>
+      <c r="I189" t="s">
+        <v>409</v>
+      </c>
+      <c r="J189">
+        <v>147507</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>1191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>465</v>
+      </c>
+      <c r="C190" t="s">
+        <v>465</v>
+      </c>
+      <c r="D190" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E190" t="s">
+        <v>183</v>
+      </c>
+      <c r="F190" t="s">
+        <v>65</v>
+      </c>
+      <c r="G190" t="s">
+        <v>74</v>
+      </c>
+      <c r="H190" t="s">
+        <v>252</v>
+      </c>
+      <c r="I190" t="s">
+        <v>409</v>
+      </c>
+      <c r="J190">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>1192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>466</v>
+      </c>
+      <c r="C191" t="s">
+        <v>466</v>
+      </c>
+      <c r="D191" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E191" t="s">
+        <v>183</v>
+      </c>
+      <c r="F191" t="s">
+        <v>65</v>
+      </c>
+      <c r="G191" t="s">
+        <v>74</v>
+      </c>
+      <c r="H191" t="s">
+        <v>236</v>
+      </c>
+      <c r="I191" t="s">
+        <v>409</v>
+      </c>
+      <c r="J191">
+        <v>72009</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>1193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>467</v>
+      </c>
+      <c r="C192" t="s">
+        <v>467</v>
+      </c>
+      <c r="D192" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E192" t="s">
+        <v>183</v>
+      </c>
+      <c r="F192" t="s">
+        <v>65</v>
+      </c>
+      <c r="G192" t="s">
+        <v>74</v>
+      </c>
+      <c r="H192" t="s">
+        <v>229</v>
+      </c>
+      <c r="I192" t="s">
+        <v>409</v>
+      </c>
+      <c r="J192">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>1194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>468</v>
+      </c>
+      <c r="C193" t="s">
+        <v>468</v>
+      </c>
+      <c r="D193" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E193" t="s">
+        <v>183</v>
+      </c>
+      <c r="F193" t="s">
+        <v>65</v>
+      </c>
+      <c r="G193" t="s">
+        <v>74</v>
+      </c>
+      <c r="H193" t="s">
+        <v>253</v>
+      </c>
+      <c r="I193" t="s">
+        <v>409</v>
+      </c>
+      <c r="J193">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>1195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>469</v>
+      </c>
+      <c r="C194" t="s">
+        <v>469</v>
+      </c>
+      <c r="D194" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E194" t="s">
+        <v>183</v>
+      </c>
+      <c r="F194" t="s">
+        <v>65</v>
+      </c>
+      <c r="G194" t="s">
+        <v>74</v>
+      </c>
+      <c r="H194" t="s">
+        <v>233</v>
+      </c>
+      <c r="I194" t="s">
+        <v>409</v>
+      </c>
+      <c r="J194">
+        <v>136295</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>470</v>
+      </c>
+      <c r="C195" t="s">
+        <v>470</v>
+      </c>
+      <c r="D195" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E195" t="s">
+        <v>183</v>
+      </c>
+      <c r="F195" t="s">
+        <v>65</v>
+      </c>
+      <c r="G195" t="s">
+        <v>74</v>
+      </c>
+      <c r="H195" t="s">
+        <v>223</v>
+      </c>
+      <c r="I195" t="s">
+        <v>409</v>
+      </c>
+      <c r="J195">
+        <v>141711</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>1197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>471</v>
+      </c>
+      <c r="C196" t="s">
+        <v>471</v>
+      </c>
+      <c r="D196" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E196" t="s">
+        <v>183</v>
+      </c>
+      <c r="F196" t="s">
+        <v>65</v>
+      </c>
+      <c r="G196" t="s">
+        <v>74</v>
+      </c>
+      <c r="H196" t="s">
+        <v>232</v>
+      </c>
+      <c r="I196" t="s">
+        <v>409</v>
+      </c>
+      <c r="J196">
+        <v>125629</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>1198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>472</v>
+      </c>
+      <c r="C197" t="s">
+        <v>472</v>
+      </c>
+      <c r="D197">
+        <v>201559</v>
+      </c>
+      <c r="E197" t="s">
+        <v>375</v>
+      </c>
+      <c r="F197" t="s">
+        <v>65</v>
+      </c>
+      <c r="G197" t="s">
+        <v>376</v>
+      </c>
+      <c r="H197" t="s">
+        <v>476</v>
+      </c>
+      <c r="I197" t="s">
+        <v>410</v>
+      </c>
+      <c r="J197">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>1199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>473</v>
+      </c>
+      <c r="C198" t="s">
+        <v>473</v>
+      </c>
+      <c r="D198">
+        <v>1199</v>
+      </c>
+      <c r="E198" t="s">
+        <v>474</v>
+      </c>
+      <c r="F198" t="s">
+        <v>74</v>
+      </c>
+      <c r="G198" t="s">
+        <v>74</v>
+      </c>
+      <c r="H198" t="s">
+        <v>475</v>
+      </c>
+      <c r="I198" t="s">
+        <v>414</v>
+      </c>
+      <c r="J198">
+        <v>206686</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>478</v>
+      </c>
+      <c r="C199" t="s">
+        <v>478</v>
+      </c>
+      <c r="D199">
+        <v>242596</v>
+      </c>
+      <c r="E199" t="s">
+        <v>479</v>
+      </c>
+      <c r="F199" t="s">
+        <v>376</v>
+      </c>
+      <c r="G199" t="s">
+        <v>376</v>
+      </c>
+      <c r="H199" s="5">
+        <v>242596</v>
+      </c>
+      <c r="I199" t="s">
+        <v>414</v>
+      </c>
+      <c r="J199">
+        <v>242596</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>480</v>
+      </c>
+      <c r="C200" t="s">
+        <v>480</v>
+      </c>
+      <c r="D200">
+        <v>133270</v>
+      </c>
+      <c r="E200" t="s">
+        <v>481</v>
+      </c>
+      <c r="F200" t="s">
+        <v>65</v>
+      </c>
+      <c r="G200" t="s">
+        <v>74</v>
+      </c>
+      <c r="H200" t="s">
+        <v>276</v>
+      </c>
+      <c r="I200" t="s">
+        <v>414</v>
+      </c>
+      <c r="J200">
+        <v>133270</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>1202</v>
+      </c>
+      <c r="B201" t="s">
+        <v>482</v>
+      </c>
+      <c r="C201" t="s">
+        <v>482</v>
+      </c>
+      <c r="D201">
+        <v>1202</v>
+      </c>
+      <c r="E201" t="s">
+        <v>482</v>
+      </c>
+      <c r="F201" t="s">
+        <v>65</v>
+      </c>
+      <c r="G201" t="s">
+        <v>46</v>
+      </c>
+      <c r="H201" t="s">
+        <v>68</v>
+      </c>
+      <c r="I201" t="s">
+        <v>482</v>
+      </c>
+      <c r="J201">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>1203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>483</v>
+      </c>
+      <c r="C202" t="s">
+        <v>483</v>
+      </c>
+      <c r="D202" s="2">
+        <v>6038</v>
+      </c>
+      <c r="E202" t="s">
+        <v>485</v>
+      </c>
+      <c r="F202" t="s">
+        <v>403</v>
+      </c>
+      <c r="G202" t="s">
+        <v>75</v>
+      </c>
+      <c r="H202" t="s">
+        <v>484</v>
+      </c>
+      <c r="I202" t="s">
+        <v>414</v>
+      </c>
+      <c r="J202" s="2">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>486</v>
+      </c>
+      <c r="C203" t="s">
+        <v>486</v>
+      </c>
+      <c r="D203" s="2">
+        <v>120307</v>
+      </c>
+      <c r="E203" t="s">
+        <v>183</v>
+      </c>
+      <c r="F203" t="s">
+        <v>65</v>
+      </c>
+      <c r="G203" t="s">
+        <v>74</v>
+      </c>
+      <c r="H203" t="s">
+        <v>219</v>
+      </c>
+      <c r="I203" t="s">
+        <v>409</v>
+      </c>
+      <c r="J203">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>1205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>488</v>
+      </c>
+      <c r="C204" t="s">
+        <v>488</v>
+      </c>
+      <c r="D204" s="6">
+        <v>230240</v>
+      </c>
+      <c r="E204" t="s">
+        <v>490</v>
+      </c>
+      <c r="F204" t="s">
+        <v>403</v>
+      </c>
+      <c r="G204" t="s">
+        <v>75</v>
+      </c>
+      <c r="H204" t="s">
+        <v>489</v>
+      </c>
+      <c r="I204" t="s">
+        <v>414</v>
+      </c>
+      <c r="J204" s="6">
+        <v>230240</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>1206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>487</v>
+      </c>
+      <c r="C205" t="s">
+        <v>487</v>
+      </c>
+      <c r="D205" s="6">
+        <v>230234</v>
+      </c>
+      <c r="E205" t="s">
+        <v>490</v>
+      </c>
+      <c r="F205" t="s">
+        <v>403</v>
+      </c>
+      <c r="G205" t="s">
+        <v>75</v>
+      </c>
+      <c r="H205" t="s">
+        <v>491</v>
+      </c>
+      <c r="I205" t="s">
+        <v>414</v>
+      </c>
+      <c r="J205" s="6">
+        <v>230234</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>1207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>492</v>
+      </c>
+      <c r="C206" t="s">
+        <v>492</v>
+      </c>
+      <c r="D206" s="6">
+        <v>230244</v>
+      </c>
+      <c r="E206" t="s">
+        <v>490</v>
+      </c>
+      <c r="F206" t="s">
+        <v>403</v>
+      </c>
+      <c r="G206" t="s">
+        <v>75</v>
+      </c>
+      <c r="H206" t="s">
+        <v>493</v>
+      </c>
+      <c r="I206" t="s">
+        <v>414</v>
+      </c>
+      <c r="J206" s="6">
+        <v>230244</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I167" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I167">
-      <sortCondition ref="A8:A167"/>
+  <autoFilter ref="A1:I188" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I188">
+      <sortCondition ref="A76:A188"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I184">
-    <sortCondition ref="B183:B184"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J203">
+    <sortCondition ref="A202:A203"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D185" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
